--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pf4-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pf4-Thbd.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H2">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I2">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J2">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.14600533333333</v>
+        <v>38.07253066666667</v>
       </c>
       <c r="N2">
-        <v>114.438016</v>
+        <v>114.217592</v>
       </c>
       <c r="O2">
-        <v>0.4882777473696396</v>
+        <v>0.6225607471741131</v>
       </c>
       <c r="P2">
-        <v>0.4882777473696397</v>
+        <v>0.622560747174113</v>
       </c>
       <c r="Q2">
-        <v>148.0866581658738</v>
+        <v>10.88777926655644</v>
       </c>
       <c r="R2">
-        <v>1332.779923492864</v>
+        <v>97.99001339900799</v>
       </c>
       <c r="S2">
-        <v>0.002289032469090375</v>
+        <v>0.0007978136657128308</v>
       </c>
       <c r="T2">
-        <v>0.002289032469090376</v>
+        <v>0.0007978136657128308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H3">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I3">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J3">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.893291</v>
+        <v>4.893291000000001</v>
       </c>
       <c r="N3">
         <v>14.679873</v>
       </c>
       <c r="O3">
-        <v>0.06263526379304228</v>
+        <v>0.08001493065359924</v>
       </c>
       <c r="P3">
-        <v>0.0626352637930423</v>
+        <v>0.08001493065359921</v>
       </c>
       <c r="Q3">
-        <v>18.996251515488</v>
+        <v>1.399357262628</v>
       </c>
       <c r="R3">
-        <v>170.966263639392</v>
+        <v>12.594215363652</v>
       </c>
       <c r="S3">
-        <v>0.0002936323707248047</v>
+        <v>0.0001025393994502074</v>
       </c>
       <c r="T3">
-        <v>0.0002936323707248048</v>
+        <v>0.0001025393994502074</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H4">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I4">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J4">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.24540333333333</v>
+        <v>9.764719999999999</v>
       </c>
       <c r="N4">
-        <v>48.73621</v>
+        <v>29.29416</v>
       </c>
       <c r="O4">
-        <v>0.2079449440484332</v>
+        <v>0.1596723746149194</v>
       </c>
       <c r="P4">
-        <v>0.2079449440484333</v>
+        <v>0.1596723746149193</v>
       </c>
       <c r="Q4">
-        <v>63.06630194087111</v>
+        <v>2.792462547093333</v>
       </c>
       <c r="R4">
-        <v>567.59671746784</v>
+        <v>25.13216292384</v>
       </c>
       <c r="S4">
-        <v>0.0009748401013034605</v>
+        <v>0.0002046206785166525</v>
       </c>
       <c r="T4">
-        <v>0.0009748401013034609</v>
+        <v>0.0002046206785166525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H5">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I5">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J5">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.088622333333333</v>
+        <v>2.183080666666667</v>
       </c>
       <c r="N5">
-        <v>6.265867</v>
+        <v>6.549242</v>
       </c>
       <c r="O5">
-        <v>0.02673485202747452</v>
+        <v>0.03569766199364528</v>
       </c>
       <c r="P5">
-        <v>0.02673485202747453</v>
+        <v>0.03569766199364527</v>
       </c>
       <c r="Q5">
-        <v>8.108243545063111</v>
+        <v>0.6243057659564444</v>
       </c>
       <c r="R5">
-        <v>72.97419190556801</v>
+        <v>5.618751893608</v>
       </c>
       <c r="S5">
-        <v>0.0001253322410797641</v>
+        <v>4.574667243606774E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001253322410797641</v>
+        <v>4.574667243606773E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H6">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I6">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J6">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.75025733333333</v>
+        <v>6.241101666666666</v>
       </c>
       <c r="N6">
-        <v>50.250772</v>
+        <v>18.723305</v>
       </c>
       <c r="O6">
-        <v>0.2144071927614103</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="P6">
-        <v>0.2144071927614104</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="Q6">
-        <v>65.02619632740978</v>
+        <v>1.784796968757778</v>
       </c>
       <c r="R6">
-        <v>585.235766946688</v>
+        <v>16.06317271882</v>
       </c>
       <c r="S6">
-        <v>0.001005134943136881</v>
+        <v>0.0001307829059844772</v>
       </c>
       <c r="T6">
-        <v>0.001005134943136882</v>
+        <v>0.0001307829059844772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H7">
         <v>2.411965</v>
       </c>
       <c r="I7">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J7">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.14600533333333</v>
+        <v>38.07253066666667</v>
       </c>
       <c r="N7">
-        <v>114.438016</v>
+        <v>114.217592</v>
       </c>
       <c r="O7">
-        <v>0.4882777473696396</v>
+        <v>0.6225607471741131</v>
       </c>
       <c r="P7">
-        <v>0.4882777473696397</v>
+        <v>0.622560747174113</v>
       </c>
       <c r="Q7">
-        <v>30.66894325127112</v>
+        <v>30.60987047647555</v>
       </c>
       <c r="R7">
-        <v>276.02048926144</v>
+        <v>275.48883428828</v>
       </c>
       <c r="S7">
-        <v>0.0004740616593306827</v>
+        <v>0.002242970983701409</v>
       </c>
       <c r="T7">
-        <v>0.0004740616593306829</v>
+        <v>0.002242970983701409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H8">
         <v>2.411965</v>
       </c>
       <c r="I8">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J8">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.893291</v>
+        <v>4.893291000000001</v>
       </c>
       <c r="N8">
         <v>14.679873</v>
       </c>
       <c r="O8">
-        <v>0.06263526379304228</v>
+        <v>0.08001493065359924</v>
       </c>
       <c r="P8">
-        <v>0.0626352637930423</v>
+        <v>0.08001493065359921</v>
       </c>
       <c r="Q8">
         <v>3.934148875605</v>
@@ -948,10 +948,10 @@
         <v>35.407339880445</v>
       </c>
       <c r="S8">
-        <v>6.081165329835575E-05</v>
+        <v>0.0002882789647974873</v>
       </c>
       <c r="T8">
-        <v>6.081165329835577E-05</v>
+        <v>0.0002882789647974872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H9">
         <v>2.411965</v>
       </c>
       <c r="I9">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J9">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.24540333333333</v>
+        <v>9.764719999999999</v>
       </c>
       <c r="N9">
-        <v>48.73621</v>
+        <v>29.29416</v>
       </c>
       <c r="O9">
-        <v>0.2079449440484332</v>
+        <v>0.1596723746149194</v>
       </c>
       <c r="P9">
-        <v>0.2079449440484333</v>
+        <v>0.1596723746149193</v>
       </c>
       <c r="Q9">
-        <v>13.06111475029445</v>
+        <v>7.850720958266665</v>
       </c>
       <c r="R9">
-        <v>117.55003275265</v>
+        <v>70.6564886244</v>
       </c>
       <c r="S9">
-        <v>0.0002018906775008107</v>
+        <v>0.0005752699713009751</v>
       </c>
       <c r="T9">
-        <v>0.0002018906775008107</v>
+        <v>0.000575269971300975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H10">
         <v>2.411965</v>
       </c>
       <c r="I10">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J10">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.088622333333333</v>
+        <v>2.183080666666667</v>
       </c>
       <c r="N10">
-        <v>6.265867</v>
+        <v>6.549242</v>
       </c>
       <c r="O10">
-        <v>0.02673485202747452</v>
+        <v>0.03569766199364528</v>
       </c>
       <c r="P10">
-        <v>0.02673485202747453</v>
+        <v>0.03569766199364527</v>
       </c>
       <c r="Q10">
-        <v>1.679227988739445</v>
+        <v>1.755171386725555</v>
       </c>
       <c r="R10">
-        <v>15.113051898655</v>
+        <v>15.79654248053</v>
       </c>
       <c r="S10">
-        <v>2.59564733031143E-05</v>
+        <v>0.000128612059788816</v>
       </c>
       <c r="T10">
-        <v>2.595647330311431E-05</v>
+        <v>0.0001286120597888159</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H11">
         <v>2.411965</v>
       </c>
       <c r="I11">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J11">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.75025733333333</v>
+        <v>6.241101666666666</v>
       </c>
       <c r="N11">
-        <v>50.250772</v>
+        <v>18.723305</v>
       </c>
       <c r="O11">
-        <v>0.2144071927614103</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="P11">
-        <v>0.2144071927614104</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="Q11">
-        <v>13.46701147633111</v>
+        <v>5.017772927147222</v>
       </c>
       <c r="R11">
-        <v>121.20310328698</v>
+        <v>45.159956344325</v>
       </c>
       <c r="S11">
-        <v>0.0002081647794118329</v>
+        <v>0.0003676826756599064</v>
       </c>
       <c r="T11">
-        <v>0.000208164779411833</v>
+        <v>0.0003676826756599063</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H12">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I12">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J12">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.14600533333333</v>
+        <v>38.07253066666667</v>
       </c>
       <c r="N12">
-        <v>114.438016</v>
+        <v>114.217592</v>
       </c>
       <c r="O12">
-        <v>0.4882777473696396</v>
+        <v>0.6225607471741131</v>
       </c>
       <c r="P12">
-        <v>0.4882777473696397</v>
+        <v>0.622560747174113</v>
       </c>
       <c r="Q12">
-        <v>21697.09425827657</v>
+        <v>2088.861997034317</v>
       </c>
       <c r="R12">
-        <v>195273.8483244891</v>
+        <v>18799.75797330885</v>
       </c>
       <c r="S12">
-        <v>0.3353803364681145</v>
+        <v>0.1530635960026452</v>
       </c>
       <c r="T12">
-        <v>0.3353803364681147</v>
+        <v>0.1530635960026452</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H13">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I13">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J13">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.893291</v>
+        <v>4.893291000000001</v>
       </c>
       <c r="N13">
         <v>14.679873</v>
       </c>
       <c r="O13">
-        <v>0.06263526379304228</v>
+        <v>0.08001493065359924</v>
       </c>
       <c r="P13">
-        <v>0.0626352637930423</v>
+        <v>0.08001493065359921</v>
       </c>
       <c r="Q13">
-        <v>2783.258564885721</v>
+        <v>268.472030394321</v>
       </c>
       <c r="R13">
-        <v>25049.32708397149</v>
+        <v>2416.248273548889</v>
       </c>
       <c r="S13">
-        <v>0.04302189882468069</v>
+        <v>0.01967257504642665</v>
       </c>
       <c r="T13">
-        <v>0.04302189882468071</v>
+        <v>0.01967257504642664</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H14">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I14">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J14">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.24540333333333</v>
+        <v>9.764719999999999</v>
       </c>
       <c r="N14">
-        <v>48.73621</v>
+        <v>29.29416</v>
       </c>
       <c r="O14">
-        <v>0.2079449440484332</v>
+        <v>0.1596723746149194</v>
       </c>
       <c r="P14">
-        <v>0.2079449440484333</v>
+        <v>0.1596723746149193</v>
       </c>
       <c r="Q14">
-        <v>9240.234837356504</v>
+        <v>535.7445949223199</v>
       </c>
       <c r="R14">
-        <v>83162.11353620853</v>
+        <v>4821.70135430088</v>
       </c>
       <c r="S14">
-        <v>0.1428298661520022</v>
+        <v>0.0392572579491682</v>
       </c>
       <c r="T14">
-        <v>0.1428298661520023</v>
+        <v>0.03925725794916819</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H15">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I15">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J15">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.088622333333333</v>
+        <v>2.183080666666667</v>
       </c>
       <c r="N15">
-        <v>6.265867</v>
+        <v>6.549242</v>
       </c>
       <c r="O15">
-        <v>0.02673485202747452</v>
+        <v>0.03569766199364528</v>
       </c>
       <c r="P15">
-        <v>0.02673485202747453</v>
+        <v>0.03569766199364527</v>
       </c>
       <c r="Q15">
-        <v>1187.989023759593</v>
+        <v>119.7754433763673</v>
       </c>
       <c r="R15">
-        <v>10691.90121383633</v>
+        <v>1077.978990387306</v>
       </c>
       <c r="S15">
-        <v>0.01836320355924779</v>
+        <v>0.008776673663471705</v>
       </c>
       <c r="T15">
-        <v>0.0183632035592478</v>
+        <v>0.008776673663471702</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H16">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I16">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J16">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.75025733333333</v>
+        <v>6.241101666666666</v>
       </c>
       <c r="N16">
-        <v>50.250772</v>
+        <v>18.723305</v>
       </c>
       <c r="O16">
-        <v>0.2144071927614103</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="P16">
-        <v>0.2144071927614104</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="Q16">
-        <v>9527.391113064778</v>
+        <v>342.4201087463183</v>
       </c>
       <c r="R16">
-        <v>85746.520017583</v>
+        <v>3081.780978716865</v>
       </c>
       <c r="S16">
-        <v>0.1472685512228953</v>
+        <v>0.02509119954441263</v>
       </c>
       <c r="T16">
-        <v>0.1472685512228953</v>
+        <v>0.02509119954441263</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H17">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I17">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J17">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>38.14600533333333</v>
+        <v>38.07253066666667</v>
       </c>
       <c r="N17">
-        <v>114.438016</v>
+        <v>114.217592</v>
       </c>
       <c r="O17">
-        <v>0.4882777473696396</v>
+        <v>0.6225607471741131</v>
       </c>
       <c r="P17">
-        <v>0.4882777473696397</v>
+        <v>0.622560747174113</v>
       </c>
       <c r="Q17">
-        <v>13.47714898362311</v>
+        <v>1.892978915590222</v>
       </c>
       <c r="R17">
-        <v>121.294340852608</v>
+        <v>17.036810240312</v>
       </c>
       <c r="S17">
-        <v>0.0002083214787636478</v>
+        <v>0.0001387100537942656</v>
       </c>
       <c r="T17">
-        <v>0.0002083214787636479</v>
+        <v>0.0001387100537942656</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H18">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I18">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J18">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.893291</v>
+        <v>4.893291000000001</v>
       </c>
       <c r="N18">
         <v>14.679873</v>
       </c>
       <c r="O18">
-        <v>0.06263526379304228</v>
+        <v>0.08001493065359924</v>
       </c>
       <c r="P18">
-        <v>0.0626352637930423</v>
+        <v>0.08001493065359921</v>
       </c>
       <c r="Q18">
-        <v>1.728820914561</v>
+        <v>0.243296059617</v>
       </c>
       <c r="R18">
-        <v>15.559388231049</v>
+        <v>2.189664536553</v>
       </c>
       <c r="S18">
-        <v>2.672305024426976E-05</v>
+        <v>1.782777887247866E-05</v>
       </c>
       <c r="T18">
-        <v>2.672305024426977E-05</v>
+        <v>1.782777887247866E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H19">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I19">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J19">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.24540333333333</v>
+        <v>9.764719999999999</v>
       </c>
       <c r="N19">
-        <v>48.73621</v>
+        <v>29.29416</v>
       </c>
       <c r="O19">
-        <v>0.2079449440484332</v>
+        <v>0.1596723746149194</v>
       </c>
       <c r="P19">
-        <v>0.2079449440484333</v>
+        <v>0.1596723746149193</v>
       </c>
       <c r="Q19">
-        <v>5.739571394414443</v>
+        <v>0.4855051333066666</v>
       </c>
       <c r="R19">
-        <v>51.65614254972999</v>
+        <v>4.369546199759999</v>
       </c>
       <c r="S19">
-        <v>8.871876402100224E-05</v>
+        <v>3.557590768905218E-05</v>
       </c>
       <c r="T19">
-        <v>8.871876402100228E-05</v>
+        <v>3.557590768905217E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H20">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I20">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J20">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.088622333333333</v>
+        <v>2.183080666666667</v>
       </c>
       <c r="N20">
-        <v>6.265867</v>
+        <v>6.549242</v>
       </c>
       <c r="O20">
-        <v>0.02673485202747452</v>
+        <v>0.03569766199364528</v>
       </c>
       <c r="P20">
-        <v>0.02673485202747453</v>
+        <v>0.03569766199364527</v>
       </c>
       <c r="Q20">
-        <v>0.7379193210634444</v>
+        <v>0.1085434984402222</v>
       </c>
       <c r="R20">
-        <v>6.641273889570999</v>
+        <v>0.9768914859619998</v>
       </c>
       <c r="S20">
-        <v>1.140630294723339E-05</v>
+        <v>7.953640890377587E-06</v>
       </c>
       <c r="T20">
-        <v>1.140630294723339E-05</v>
+        <v>7.953640890377584E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H21">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I21">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J21">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.75025733333333</v>
+        <v>6.241101666666666</v>
       </c>
       <c r="N21">
-        <v>50.250772</v>
+        <v>18.723305</v>
       </c>
       <c r="O21">
-        <v>0.2144071927614103</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="P21">
-        <v>0.2144071927614104</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="Q21">
-        <v>5.917938500315111</v>
+        <v>0.3103096552338889</v>
       </c>
       <c r="R21">
-        <v>53.26144650283599</v>
+        <v>2.792786897105</v>
       </c>
       <c r="S21">
-        <v>9.147585302470559E-05</v>
+        <v>2.273827173450166E-05</v>
       </c>
       <c r="T21">
-        <v>9.147585302470563E-05</v>
+        <v>2.273827173450166E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H22">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I22">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J22">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>38.14600533333333</v>
+        <v>38.07253066666667</v>
       </c>
       <c r="N22">
-        <v>114.438016</v>
+        <v>114.217592</v>
       </c>
       <c r="O22">
-        <v>0.4882777473696396</v>
+        <v>0.6225607471741131</v>
       </c>
       <c r="P22">
-        <v>0.4882777473696397</v>
+        <v>0.622560747174113</v>
       </c>
       <c r="Q22">
-        <v>9699.311790083131</v>
+        <v>6363.8465094327</v>
       </c>
       <c r="R22">
-        <v>87293.80611074818</v>
+        <v>57274.6185848943</v>
       </c>
       <c r="S22">
-        <v>0.1499259952943403</v>
+        <v>0.4663176564682595</v>
       </c>
       <c r="T22">
-        <v>0.1499259952943404</v>
+        <v>0.4663176564682593</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H23">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I23">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J23">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.893291</v>
+        <v>4.893291000000001</v>
       </c>
       <c r="N23">
         <v>14.679873</v>
       </c>
       <c r="O23">
-        <v>0.06263526379304228</v>
+        <v>0.08001493065359924</v>
       </c>
       <c r="P23">
-        <v>0.0626352637930423</v>
+        <v>0.08001493065359921</v>
       </c>
       <c r="Q23">
-        <v>1244.20774007322</v>
+        <v>817.9165478288612</v>
       </c>
       <c r="R23">
-        <v>11197.86966065898</v>
+        <v>7361.248930459749</v>
       </c>
       <c r="S23">
-        <v>0.01923219789409416</v>
+        <v>0.05993370946405242</v>
       </c>
       <c r="T23">
-        <v>0.01923219789409416</v>
+        <v>0.0599337094640524</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H24">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I24">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J24">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.24540333333333</v>
+        <v>9.764719999999999</v>
       </c>
       <c r="N24">
-        <v>48.73621</v>
+        <v>29.29416</v>
       </c>
       <c r="O24">
-        <v>0.2079449440484332</v>
+        <v>0.1596723746149194</v>
       </c>
       <c r="P24">
-        <v>0.2079449440484333</v>
+        <v>0.1596723746149193</v>
       </c>
       <c r="Q24">
-        <v>4130.687622694956</v>
+        <v>1632.178849145787</v>
       </c>
       <c r="R24">
-        <v>37176.1886042546</v>
+        <v>14689.60964231208</v>
       </c>
       <c r="S24">
-        <v>0.06384962835360569</v>
+        <v>0.1195996501082445</v>
       </c>
       <c r="T24">
-        <v>0.06384962835360571</v>
+        <v>0.1195996501082445</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H25">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I25">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J25">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.088622333333333</v>
+        <v>2.183080666666667</v>
       </c>
       <c r="N25">
-        <v>6.265867</v>
+        <v>6.549242</v>
       </c>
       <c r="O25">
-        <v>0.02673485202747452</v>
+        <v>0.03569766199364528</v>
       </c>
       <c r="P25">
-        <v>0.02673485202747453</v>
+        <v>0.03569766199364527</v>
       </c>
       <c r="Q25">
-        <v>531.0700044659357</v>
+        <v>364.9032527417496</v>
       </c>
       <c r="R25">
-        <v>4779.63004019342</v>
+        <v>3284.129274675746</v>
       </c>
       <c r="S25">
-        <v>0.008208953450896617</v>
+        <v>0.02673867595705832</v>
       </c>
       <c r="T25">
-        <v>0.008208953450896618</v>
+        <v>0.0267386759570583</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H26">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I26">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J26">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.75025733333333</v>
+        <v>6.241101666666666</v>
       </c>
       <c r="N26">
-        <v>50.250772</v>
+        <v>18.723305</v>
       </c>
       <c r="O26">
-        <v>0.2144071927614103</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="P26">
-        <v>0.2144071927614104</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="Q26">
-        <v>4259.05588332097</v>
+        <v>1043.203915289107</v>
       </c>
       <c r="R26">
-        <v>38331.50294988872</v>
+        <v>9388.835237601965</v>
       </c>
       <c r="S26">
-        <v>0.06583386596294162</v>
+        <v>0.07644188216593154</v>
       </c>
       <c r="T26">
-        <v>0.06583386596294163</v>
+        <v>0.07644188216593151</v>
       </c>
     </row>
   </sheetData>
